--- a/biology/Médecine/Victor_Morel/Victor_Morel.xlsx
+++ b/biology/Médecine/Victor_Morel/Victor_Morel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Morel, né le 30 octobre 1869 à Campagne-lès-Hesdin (Pas-de-Calais) et mort le 23 janvier 1927 à Paris, est un chirurgien et un homme politique français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Victor Narcisse Joseph Morel naît le 30 octobre 1869 à Campagne-lès-Hesdin du mariage de Narcisse Joseph Morel, médecin, et d'Ester Fanny Dupré[1].
-Médecin-chirurgien, Victor Morel est élu maire de Campagne-lès-Hesdin, succédant ainsi à son père. Il est député du Pas-de-Calais, de la VIIIe à la XIIIe législature[2], de 1903 à sa mort, en 1927, siégeant sur les bancs radicaux. Il est secrétaire de la Chambre des députés en 1909.
-Vers 1905-1908, Victor Morel ouvre la Chartreuse de Neuville-sous-Montreuil à des interventions d'artistes après en avoir fait un sanatorium et un hôpital[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Victor Narcisse Joseph Morel naît le 30 octobre 1869 à Campagne-lès-Hesdin du mariage de Narcisse Joseph Morel, médecin, et d'Ester Fanny Dupré.
+Médecin-chirurgien, Victor Morel est élu maire de Campagne-lès-Hesdin, succédant ainsi à son père. Il est député du Pas-de-Calais, de la VIIIe à la XIIIe législature, de 1903 à sa mort, en 1927, siégeant sur les bancs radicaux. Il est secrétaire de la Chambre des députés en 1909.
+Vers 1905-1908, Victor Morel ouvre la Chartreuse de Neuville-sous-Montreuil à des interventions d'artistes après en avoir fait un sanatorium et un hôpital.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Augustin Lesieux (1877-1964), Victor Morel, buste, localisation inconnue.[réf. nécessaire]</t>
         </is>
